--- a/distribuicao incondicional produtos (2007).xlsx
+++ b/distribuicao incondicional produtos (2007).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Github\POF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\POF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{354ADE17-5108-4F52-A020-82950A30C602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3BBE08D-12F8-4A87-87A9-856AA69184AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-25650" yWindow="3870" windowWidth="14625" windowHeight="8100"/>
   </bookViews>
   <sheets>
     <sheet name="distribuicao incondicional prod" sheetId="1" r:id="rId1"/>
@@ -931,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
